--- a/testBook.xlsx
+++ b/testBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6348BD-A91A-45B7-9F41-2517FA4A9BFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB1B89-0836-419D-9B2D-1933A000C8EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3531" windowWidth="24686" windowHeight="13595" xr2:uid="{B0499DB2-3A96-4CB9-80C5-D918756B67AF}"/>
+    <workbookView xWindow="-33480" yWindow="11205" windowWidth="24690" windowHeight="13590" xr2:uid="{B0499DB2-3A96-4CB9-80C5-D918756B67AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2713FA27-56E9-4E2E-B0E7-849A022030B5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -419,8 +419,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
